--- a/Inputdateien/Input_Bremsung.xlsx
+++ b/Inputdateien/Input_Bremsung.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07A4480-1982-4D25-A9AA-49B187BFAECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE914C1-FC82-4930-8331-3287F76C076C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D37BD66F-60A8-443E-B772-31CA9743C918}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="simulierte Bushaltestelle" sheetId="2" r:id="rId2"/>
-    <sheet name="Modell-Bushaltestelle" sheetId="3" r:id="rId3"/>
+    <sheet name="Modell-Haltestelle nach Beschl." sheetId="4" r:id="rId2"/>
+    <sheet name="Bremsung auf 0 nach Beschl." sheetId="2" r:id="rId3"/>
+    <sheet name="Bremsung auf 0 nach v=konst." sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -238,7 +239,7 @@
     <author>Fabio Frank</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{86D5AD2F-3C36-405C-B00D-A05E4D98ED3B}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{177AC17C-CAE3-4A3B-BFBB-C6FF4E81A95F}">
       <text>
         <r>
           <rPr>
@@ -262,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{BE91EE30-1AF1-45AA-B3B5-E5A159570627}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3B54F8BF-25AD-41AA-B7C8-49DF90B9C63A}">
       <text>
         <r>
           <rPr>
@@ -307,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B5FACF81-1927-48BB-8177-579D150DD0F3}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{12A9F20D-5034-48EF-A79A-3FA1928076A1}">
       <text>
         <r>
           <rPr>
@@ -332,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C7C3C584-FA5B-491B-94DA-6FBD0BA950A3}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4F561AB3-CBE6-4250-BA49-DFD5B56013AA}">
       <text>
         <r>
           <rPr>
@@ -357,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{CC677D02-1ED1-4360-8B23-FCD9351E193E}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{AA1F2F72-7A73-4797-8E97-7F7BD9C4385D}">
       <text>
         <r>
           <rPr>
@@ -382,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{402C3337-0B30-496E-86FE-78F81B5B3D15}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{DBBCAFE8-7EC4-452A-A303-DC75AD8E9428}">
       <text>
         <r>
           <rPr>
@@ -436,7 +437,7 @@
     <author>Fabio Frank</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AC91039E-63A5-424A-B674-2984B248CF5C}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{86D5AD2F-3C36-405C-B00D-A05E4D98ED3B}">
       <text>
         <r>
           <rPr>
@@ -460,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{6CC9C65D-973B-47E1-8084-CB23D490E9B5}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{BE91EE30-1AF1-45AA-B3B5-E5A159570627}">
       <text>
         <r>
           <rPr>
@@ -505,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{8A73D140-5E50-4C8D-995D-062631511C70}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B5FACF81-1927-48BB-8177-579D150DD0F3}">
       <text>
         <r>
           <rPr>
@@ -530,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5BB64C75-D041-4C74-898E-88225C4D9AC2}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C7C3C584-FA5B-491B-94DA-6FBD0BA950A3}">
       <text>
         <r>
           <rPr>
@@ -555,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{23B13FCD-306C-4CD8-9533-897E42AEE420}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{CC677D02-1ED1-4360-8B23-FCD9351E193E}">
       <text>
         <r>
           <rPr>
@@ -580,7 +581,205 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5A988B94-07F3-4723-9212-15D733E4A946}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{402C3337-0B30-496E-86FE-78F81B5B3D15}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fabio Frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Für jede Bushaltestelle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Wie viele Minuten nach Start des Umlaufs soll diese laut Fahrplan erreicht sein?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Fabio Frank</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{ED094766-00D5-4FC3-B1D5-A94F9C608518}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabio Frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Der Eintrag in der letzten Zeile entspricht dem Streckenende!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E8F5D5AA-8D6E-46FE-84F8-2BB957419D12}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Fabio Frank:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">z. B. Tempolimit
+Auch bei Haltestellen und Ampeln eine Geschwindigkeit angeben, die NACH dem Halten gefahren werden soll.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>v ≠ 0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> !</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2FF3E966-67D5-4C32-94D2-589AF0183957}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fabio Frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ja = 1
+Nein = 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E6157631-433D-431D-8AF5-2C71F7F25C1D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fabio Frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ja = 1
+Nein = 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{90473D8E-7077-4BD7-8890-E9C4682D0CD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fabio Frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ja = 1
+Nein = 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D5467568-23F5-428D-AC6F-417B75DA1987}">
       <text>
         <r>
           <rPr>
@@ -629,7 +828,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>zurückgelegte Distanz [km]</t>
   </si>
@@ -765,7 +964,47 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -911,15 +1150,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleLight11 2" pivot="0" count="9" xr9:uid="{0180391A-41E7-45CF-B08D-9B25B96C4A5B}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstColumn" dxfId="11"/>
-      <tableStyleElement type="lastColumn" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="totalRow" dxfId="16"/>
+      <tableStyleElement type="firstColumn" dxfId="15"/>
+      <tableStyleElement type="lastColumn" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="11"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1230,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DB0423-F649-4DE0-836E-C75FD08CB5E3}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,7 +1533,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>0.255</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="B3" s="3">
         <v>50</v>
@@ -1375,7 +1614,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1401,38 +1640,29 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G12">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Ja">
+  <conditionalFormatting sqref="G1:G11">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Ja">
       <formula>NOT(ISERROR(SEARCH("Ja",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Nein">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Nein">
       <formula>NOT(ISERROR(SEARCH("Nein",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Bushaltestelle: 1_x000a_keine Bushaltestelle: 0" sqref="E1:E9" xr:uid="{4956BB8D-2592-450F-8271-5073561D9129}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Bushaltestelle: 1_x000a_keine Bushaltestelle: 0" sqref="E1:E8" xr:uid="{4956BB8D-2592-450F-8271-5073561D9129}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Ampel: 1_x000a_keine Ampel: 0" sqref="D1:D9" xr:uid="{05D217E4-30A8-4DFF-81A6-73A4E12DD0E5}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Ampel: 1_x000a_keine Ampel: 0" sqref="D1:D8" xr:uid="{05D217E4-30A8-4DFF-81A6-73A4E12DD0E5}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Verfügt der nächste Abschnitt über DWPT?: 1_x000a_keine DWPT-Infrastruktur: 0" sqref="C1:C9" xr:uid="{3E75EB6A-6E6D-4131-AF8C-2C61EC89A6F6}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Verfügt der nächste Abschnitt über DWPT?: 1_x000a_keine DWPT-Infrastruktur: 0" sqref="C1:C8" xr:uid="{3E75EB6A-6E6D-4131-AF8C-2C61EC89A6F6}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B1:B9" xr:uid="{BBE2A600-42C9-46B3-A402-88E1824F05D4}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B1:B8" xr:uid="{BBE2A600-42C9-46B3-A402-88E1824F05D4}">
       <formula1>0.1</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -1443,11 +1673,144 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74B8E4A-D08F-4D0B-B7D3-00C47E23EA41}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="str">
+        <f>IF(AND(E2=1,D2=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E2=1, ISBLANK(F2)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F2)), E2=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>0.255</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f>IF(AND(E3=1,D3=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E3=1, ISBLANK(F3)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F3)), E3=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="str">
+        <f>IF(AND(E4=1,D4=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E4=1, ISBLANK(F4)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F4)), E4=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <v>Ja</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:G4">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Ja">
+      <formula>NOT(ISERROR(SEARCH("Ja",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Nein">
+      <formula>NOT(ISERROR(SEARCH("Nein",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B1:B4" xr:uid="{C4E2E1AD-C3B3-4EBB-8245-5EE1F20BF499}">
+      <formula1>0.1</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Verfügt der nächste Abschnitt über DWPT?: 1_x000a_keine DWPT-Infrastruktur: 0" sqref="C1:C4" xr:uid="{036AA4DA-A184-457C-9CCE-39B9B3823363}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Ampel: 1_x000a_keine Ampel: 0" sqref="D1:D4" xr:uid="{14A5B349-46C7-43C8-AFB2-696F823EF1B9}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Bushaltestelle: 1_x000a_keine Bushaltestelle: 0" sqref="E1:E4" xr:uid="{BDEE3BB3-1580-4F61-A63C-482C50D7D260}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6AB8BF-F8EC-4CE8-B9C6-0E7963AD8C63}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1461,7 +1824,7 @@
     <col min="7" max="7" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,10 +1937,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G5">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Ja">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Ja">
       <formula>NOT(ISERROR(SEARCH("Ja",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Nein">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Nein">
       <formula>NOT(ISERROR(SEARCH("Nein",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1604,22 +1967,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257D5762-875E-4091-AF47-8F104946D958}">
-  <dimension ref="A1:G4"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2428C3FD-49B5-4E39-96E9-9020AC08654D}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" customWidth="1"/>
-    <col min="7" max="8" width="33.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -1669,10 +2027,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="B3" s="3">
-        <v>50</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -1691,7 +2049,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>0.20200000000000001</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="B4" s="3">
         <v>50</v>
@@ -1703,39 +2061,67 @@
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3" t="str">
         <f>IF(AND(E4=1,D4=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E4=1, ISBLANK(F4)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F4)), E4=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="str">
+        <f>IF(AND(E5=1,D5=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E5=1, ISBLANK(F5)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F5)), E5=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <v>Ja</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G4">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Ja">
+  <conditionalFormatting sqref="G1">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Ja">
       <formula>NOT(ISERROR(SEARCH("Ja",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Nein">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Nein">
       <formula>NOT(ISERROR(SEARCH("Nein",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Ja">
+      <formula>NOT(ISERROR(SEARCH("Ja",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Nein">
+      <formula>NOT(ISERROR(SEARCH("Nein",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B1:B4" xr:uid="{CEC2FABE-0719-43C3-8554-59918EF99C3A}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B1:B5" xr:uid="{CAC14BC9-1C24-4C40-98A0-430D66937513}">
       <formula1>0.1</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Verfügt der nächste Abschnitt über DWPT?: 1_x000a_keine DWPT-Infrastruktur: 0" sqref="C1:C4" xr:uid="{3EDE9E00-0D13-40BE-A2C2-3B699BEEA21B}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Verfügt der nächste Abschnitt über DWPT?: 1_x000a_keine DWPT-Infrastruktur: 0" sqref="C1:C5" xr:uid="{D9A73A18-B439-45D3-93FE-BBB7643E7AE4}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Ampel: 1_x000a_keine Ampel: 0" sqref="D1:D4" xr:uid="{7C9542D8-41A1-4AD4-AEEF-7743FFFD903E}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Ampel: 1_x000a_keine Ampel: 0" sqref="D1:D5" xr:uid="{4492B62B-D5CE-4BE5-B474-4C8FE694946F}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Bushaltestelle: 1_x000a_keine Bushaltestelle: 0" sqref="E1:E4" xr:uid="{295A2F8A-4ECF-46FE-9BB6-601CFF7BD344}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Bushaltestelle: 1_x000a_keine Bushaltestelle: 0" sqref="E1:E5" xr:uid="{A1A054BB-2F24-4BAD-95C2-870100120F4E}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/Inputdateien/Input_Bremsung.xlsx
+++ b/Inputdateien/Input_Bremsung.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE914C1-FC82-4930-8331-3287F76C076C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE717E74-C302-45B5-B116-DCAD3B40FECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D37BD66F-60A8-443E-B772-31CA9743C918}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Modell-Haltestelle nach Beschl." sheetId="4" r:id="rId2"/>
-    <sheet name="Bremsung auf 0 nach Beschl." sheetId="2" r:id="rId3"/>
-    <sheet name="Bremsung auf 0 nach v=konst." sheetId="5" r:id="rId4"/>
+    <sheet name="Modell-Haltestelle nach v_konst" sheetId="6" r:id="rId2"/>
+    <sheet name="Modell-Haltestelle nach Beschl." sheetId="4" r:id="rId3"/>
+    <sheet name="Bremsung auf 0 nach Beschl." sheetId="2" r:id="rId4"/>
+    <sheet name="Bremsung auf 0 nach v=konst." sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
     <author>Fabio Frank</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{0BE8B748-1295-4A2B-A0A2-A573EE59DA24}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C0D96B35-7734-443F-AA24-FF96ACFE7EDB}">
       <text>
         <r>
           <rPr>
@@ -65,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{695DF918-742A-4DF7-9739-DF3170D94A8A}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{B7022E8B-94BF-41C8-BC64-8183CDE36AAD}">
       <text>
         <r>
           <rPr>
@@ -110,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{98D3EDED-D401-409E-AF8A-49EBD141364E}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{56A337F1-73EE-4F13-8E94-E32E4F273075}">
       <text>
         <r>
           <rPr>
@@ -135,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5D720AD3-C939-40C1-86F2-12F4E5F0D8A8}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{315B287D-6FD4-4F9E-BFA1-3465E22BF5E3}">
       <text>
         <r>
           <rPr>
@@ -160,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E16D6370-4D7F-4896-93C3-9DD74E240DE4}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{69C916F6-32B7-4A49-A31E-03E3C35116C8}">
       <text>
         <r>
           <rPr>
@@ -185,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{521412DE-5B29-4DA4-8527-A5DA80CFAB8E}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A49306DC-6BBD-43E9-B99D-C69E1AAE6AD7}">
       <text>
         <r>
           <rPr>
@@ -239,7 +240,7 @@
     <author>Fabio Frank</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{177AC17C-CAE3-4A3B-BFBB-C6FF4E81A95F}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7514D61B-6633-492B-8B23-D384DF83287B}">
       <text>
         <r>
           <rPr>
@@ -263,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3B54F8BF-25AD-41AA-B7C8-49DF90B9C63A}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{7718FB43-FA20-45F9-BE57-7CB70FD7A41E}">
       <text>
         <r>
           <rPr>
@@ -308,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{12A9F20D-5034-48EF-A79A-3FA1928076A1}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{FA11A200-7B1A-4BED-BD23-AAD6F2E55FF5}">
       <text>
         <r>
           <rPr>
@@ -333,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4F561AB3-CBE6-4250-BA49-DFD5B56013AA}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0B0BBE29-F7B4-4D7E-8925-7FA3E0B38C26}">
       <text>
         <r>
           <rPr>
@@ -358,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{AA1F2F72-7A73-4797-8E97-7F7BD9C4385D}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0833E84D-2D69-4806-B101-011ADD67048E}">
       <text>
         <r>
           <rPr>
@@ -383,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{DBBCAFE8-7EC4-452A-A303-DC75AD8E9428}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{88776E4E-9B53-4D7B-A1BC-85914AC41D92}">
       <text>
         <r>
           <rPr>
@@ -437,7 +438,7 @@
     <author>Fabio Frank</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{86D5AD2F-3C36-405C-B00D-A05E4D98ED3B}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{177AC17C-CAE3-4A3B-BFBB-C6FF4E81A95F}">
       <text>
         <r>
           <rPr>
@@ -461,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{BE91EE30-1AF1-45AA-B3B5-E5A159570627}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3B54F8BF-25AD-41AA-B7C8-49DF90B9C63A}">
       <text>
         <r>
           <rPr>
@@ -506,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B5FACF81-1927-48BB-8177-579D150DD0F3}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{12A9F20D-5034-48EF-A79A-3FA1928076A1}">
       <text>
         <r>
           <rPr>
@@ -531,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C7C3C584-FA5B-491B-94DA-6FBD0BA950A3}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4F561AB3-CBE6-4250-BA49-DFD5B56013AA}">
       <text>
         <r>
           <rPr>
@@ -556,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{CC677D02-1ED1-4360-8B23-FCD9351E193E}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{AA1F2F72-7A73-4797-8E97-7F7BD9C4385D}">
       <text>
         <r>
           <rPr>
@@ -581,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{402C3337-0B30-496E-86FE-78F81B5B3D15}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{DBBCAFE8-7EC4-452A-A303-DC75AD8E9428}">
       <text>
         <r>
           <rPr>
@@ -635,6 +636,204 @@
     <author>Fabio Frank</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{86D5AD2F-3C36-405C-B00D-A05E4D98ED3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabio Frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Der Eintrag in der letzten Zeile entspricht dem Streckenende!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{BE91EE30-1AF1-45AA-B3B5-E5A159570627}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Fabio Frank:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">z. B. Tempolimit
+Auch bei Haltestellen und Ampeln eine Geschwindigkeit angeben, die NACH dem Halten gefahren werden soll.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>v ≠ 0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> !</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B5FACF81-1927-48BB-8177-579D150DD0F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fabio Frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ja = 1
+Nein = 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C7C3C584-FA5B-491B-94DA-6FBD0BA950A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fabio Frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ja = 1
+Nein = 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{CC677D02-1ED1-4360-8B23-FCD9351E193E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fabio Frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ja = 1
+Nein = 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{402C3337-0B30-496E-86FE-78F81B5B3D15}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fabio Frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Für jede Bushaltestelle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Wie viele Minuten nach Start des Umlaufs soll diese laut Fahrplan erreicht sein?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Fabio Frank</author>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{ED094766-00D5-4FC3-B1D5-A94F9C608518}">
       <text>
         <r>
@@ -828,7 +1027,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>zurückgelegte Distanz [km]</t>
   </si>
@@ -964,7 +1163,87 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1150,15 +1429,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleLight11 2" pivot="0" count="9" xr9:uid="{0180391A-41E7-45CF-B08D-9B25B96C4A5B}">
-      <tableStyleElement type="wholeTable" dxfId="18"/>
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="totalRow" dxfId="16"/>
-      <tableStyleElement type="firstColumn" dxfId="15"/>
-      <tableStyleElement type="lastColumn" dxfId="14"/>
-      <tableStyleElement type="firstRowStripe" dxfId="13"/>
-      <tableStyleElement type="secondRowStripe" dxfId="12"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="11"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="totalRow" dxfId="24"/>
+      <tableStyleElement type="firstColumn" dxfId="23"/>
+      <tableStyleElement type="lastColumn" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1469,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DB0423-F649-4DE0-836E-C75FD08CB5E3}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,7 +1884,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1631,38 +1910,37 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G11">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Ja">
+  <conditionalFormatting sqref="G5:G10">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Ja">
+      <formula>NOT(ISERROR(SEARCH("Ja",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="Nein">
+      <formula>NOT(ISERROR(SEARCH("Nein",G5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G4">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Ja">
       <formula>NOT(ISERROR(SEARCH("Ja",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Nein">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Nein">
       <formula>NOT(ISERROR(SEARCH("Nein",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Bushaltestelle: 1_x000a_keine Bushaltestelle: 0" sqref="E1:E8" xr:uid="{4956BB8D-2592-450F-8271-5073561D9129}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Bushaltestelle: 1_x000a_keine Bushaltestelle: 0" sqref="E1:E7" xr:uid="{4956BB8D-2592-450F-8271-5073561D9129}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Ampel: 1_x000a_keine Ampel: 0" sqref="D1:D8" xr:uid="{05D217E4-30A8-4DFF-81A6-73A4E12DD0E5}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Ampel: 1_x000a_keine Ampel: 0" sqref="D1:D7" xr:uid="{05D217E4-30A8-4DFF-81A6-73A4E12DD0E5}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Verfügt der nächste Abschnitt über DWPT?: 1_x000a_keine DWPT-Infrastruktur: 0" sqref="C1:C8" xr:uid="{3E75EB6A-6E6D-4131-AF8C-2C61EC89A6F6}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Verfügt der nächste Abschnitt über DWPT?: 1_x000a_keine DWPT-Infrastruktur: 0" sqref="C1:C7" xr:uid="{3E75EB6A-6E6D-4131-AF8C-2C61EC89A6F6}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B1:B8" xr:uid="{BBE2A600-42C9-46B3-A402-88E1824F05D4}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B1:B7" xr:uid="{BBE2A600-42C9-46B3-A402-88E1824F05D4}">
       <formula1>0.1</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -1673,6 +1951,139 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE4D3C0-22BC-4A0F-BD91-0F8CE08494EE}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="str">
+        <f>IF(AND(E2=1,D2=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E2=1, ISBLANK(F2)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F2)), E2=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f>IF(AND(E3=1,D3=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E3=1, ISBLANK(F3)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F3)), E3=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="str">
+        <f>IF(AND(E4=1,D4=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E4=1, ISBLANK(F4)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F4)), E4=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <v>Ja</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:G4">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Ja">
+      <formula>NOT(ISERROR(SEARCH("Ja",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Nein">
+      <formula>NOT(ISERROR(SEARCH("Nein",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B1:B4" xr:uid="{15FEEC62-6CBE-496C-AFF2-4973E421A85A}">
+      <formula1>0.1</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Verfügt der nächste Abschnitt über DWPT?: 1_x000a_keine DWPT-Infrastruktur: 0" sqref="C1:C4" xr:uid="{EE87D027-74F2-4E52-927A-76F997B90FE5}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Ampel: 1_x000a_keine Ampel: 0" sqref="D1:D4" xr:uid="{44EEF801-7EF4-42D2-A12D-0F3555EE1631}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Bushaltestelle: 1_x000a_keine Bushaltestelle: 0" sqref="E1:E4" xr:uid="{9EAE26A6-1538-4E07-9D69-964248B4586F}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74B8E4A-D08F-4D0B-B7D3-00C47E23EA41}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1805,7 +2216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6AB8BF-F8EC-4CE8-B9C6-0E7963AD8C63}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1967,16 +2378,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2428C3FD-49B5-4E39-96E9-9020AC08654D}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
